--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3281DE2-1177-4C68-8E1C-3340059E110D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DCAD35-16B7-459D-BB53-D7751E14FC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6795" yWindow="3405" windowWidth="14400" windowHeight="8415" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>postTest/86_totipa1.wav</t>
   </si>
   <si>
-    <t>audioC</t>
+    <t>audioX</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,10 +485,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>

--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DCAD35-16B7-459D-BB53-D7751E14FC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D040B879-88FB-4DF0-8305-FE6BCEE524B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>audioA</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>audioX</t>
+  </si>
+  <si>
+    <t>currentPhase</t>
+  </si>
+  <si>
+    <t>postTest</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876580D4-BF65-4010-A1CE-182F32790C95}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +486,7 @@
     <col min="5" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +499,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -507,8 +516,11 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -521,8 +533,11 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -535,8 +550,11 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -549,8 +567,11 @@
       <c r="D5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -563,8 +584,11 @@
       <c r="D6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -577,8 +601,11 @@
       <c r="D7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -591,8 +618,11 @@
       <c r="D8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -605,8 +635,11 @@
       <c r="D9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -619,8 +652,11 @@
       <c r="D10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -633,8 +669,11 @@
       <c r="D11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -647,8 +686,11 @@
       <c r="D12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -660,6 +702,9 @@
       </c>
       <c r="D13" t="s">
         <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D040B879-88FB-4DF0-8305-FE6BCEE524B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72191A3F-79BC-4BCD-B301-72EA5C3A5F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72191A3F-79BC-4BCD-B301-72EA5C3A5F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774D77DF-F9A6-43C6-ACB6-DC92E52F7871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -514,10 +514,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -531,10 +531,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,10 +548,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -565,10 +565,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -582,10 +582,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -599,10 +599,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -633,10 +633,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -650,10 +650,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -667,10 +667,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -684,10 +684,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -701,10 +701,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
         <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774D77DF-F9A6-43C6-ACB6-DC92E52F7871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF9D6D-B243-4F79-AD63-14956E550B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>audioA</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>postTest</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876580D4-BF65-4010-A1CE-182F32790C95}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,7 +492,7 @@
     <col min="5" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +508,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -519,8 +528,11 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -536,8 +548,11 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -553,8 +568,11 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -570,8 +588,11 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -587,8 +608,11 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -604,8 +628,11 @@
       <c r="E7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -621,8 +648,11 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -638,8 +668,11 @@
       <c r="E9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -655,8 +688,11 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -672,8 +708,11 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -689,8 +728,11 @@
       <c r="E12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -705,6 +747,9 @@
       </c>
       <c r="E13" t="s">
         <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF9D6D-B243-4F79-AD63-14956E550B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F2664-4B4D-4ADA-937F-770BB86E3C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>audioA</t>
   </si>
@@ -123,12 +123,6 @@
   </si>
   <si>
     <t>postTest</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
 </sst>
 </file>
@@ -480,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876580D4-BF65-4010-A1CE-182F32790C95}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +486,7 @@
     <col min="5" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,11 +502,8 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -528,11 +519,8 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -548,11 +536,8 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -568,11 +553,8 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -588,11 +570,8 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -608,11 +587,8 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -628,11 +604,8 @@
       <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -648,11 +621,8 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -668,11 +638,8 @@
       <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -688,11 +655,8 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -708,11 +672,8 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -728,11 +689,8 @@
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -747,9 +705,6 @@
       </c>
       <c r="E13" t="s">
         <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F2664-4B4D-4ADA-937F-770BB86E3C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3CA5D9-1501-42DD-B04F-088CBF37C6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,78 +44,6 @@
     <t>correctLabel</t>
   </si>
   <si>
-    <t>postTest/82_tipiko1.wav</t>
-  </si>
-  <si>
-    <t>postTest/83_pitita3.wav</t>
-  </si>
-  <si>
-    <t>postTest/84_pitoka3.wav</t>
-  </si>
-  <si>
-    <t>postTest/85_kipata2.wav</t>
-  </si>
-  <si>
-    <t>postTest/86_totipa2.wav</t>
-  </si>
-  <si>
-    <t>postTest/87_kopoko1.wav</t>
-  </si>
-  <si>
-    <t>postTest/88_pokota2.wav</t>
-  </si>
-  <si>
-    <t>postTest/89_totako3.wav</t>
-  </si>
-  <si>
-    <t>postTest/90_papiki2.wav</t>
-  </si>
-  <si>
-    <t>postTest/91_papipo1.wav</t>
-  </si>
-  <si>
-    <t>postTest/92_katoki1.wav</t>
-  </si>
-  <si>
-    <t>postTest/93_pakopa3.wav</t>
-  </si>
-  <si>
-    <t>postTest/82_tipiko3.wav</t>
-  </si>
-  <si>
-    <t>postTest/83_pitita2.wav</t>
-  </si>
-  <si>
-    <t>postTest/84_pitoka1.wav</t>
-  </si>
-  <si>
-    <t>postTest/85_kipata3.wav</t>
-  </si>
-  <si>
-    <t>postTest/87_kopoko3.wav</t>
-  </si>
-  <si>
-    <t>postTest/88_pokota1.wav</t>
-  </si>
-  <si>
-    <t>postTest/89_totako2.wav</t>
-  </si>
-  <si>
-    <t>postTest/90_papiki3.wav</t>
-  </si>
-  <si>
-    <t>postTest/91_papipo2.wav</t>
-  </si>
-  <si>
-    <t>postTest/92_katoki2.wav</t>
-  </si>
-  <si>
-    <t>postTest/93_pakopa1.wav</t>
-  </si>
-  <si>
-    <t>postTest/86_totipa1.wav</t>
-  </si>
-  <si>
     <t>audioX</t>
   </si>
   <si>
@@ -123,6 +51,78 @@
   </si>
   <si>
     <t>postTest</t>
+  </si>
+  <si>
+    <t>postTest/82_tipiko3.mp3</t>
+  </si>
+  <si>
+    <t>postTest/83_pitita2.mp3</t>
+  </si>
+  <si>
+    <t>postTest/84_pitoka1.mp3</t>
+  </si>
+  <si>
+    <t>postTest/85_kipata3.mp3</t>
+  </si>
+  <si>
+    <t>postTest/86_totipa1.mp3</t>
+  </si>
+  <si>
+    <t>postTest/87_kopoko3.mp3</t>
+  </si>
+  <si>
+    <t>postTest/88_pokota1.mp3</t>
+  </si>
+  <si>
+    <t>postTest/89_totako2.mp3</t>
+  </si>
+  <si>
+    <t>postTest/90_papiki3.mp3</t>
+  </si>
+  <si>
+    <t>postTest/91_papipo2.mp3</t>
+  </si>
+  <si>
+    <t>postTest/92_katoki2.mp3</t>
+  </si>
+  <si>
+    <t>postTest/93_pakopa1.mp3</t>
+  </si>
+  <si>
+    <t>postTest/82_tipiko1.mp3</t>
+  </si>
+  <si>
+    <t>postTest/83_pitita3.mp3</t>
+  </si>
+  <si>
+    <t>postTest/85_kipata2.mp3</t>
+  </si>
+  <si>
+    <t>postTest/88_pokota2.mp3</t>
+  </si>
+  <si>
+    <t>postTest/91_papipo1.mp3</t>
+  </si>
+  <si>
+    <t>postTest/93_pakopa3.mp3</t>
+  </si>
+  <si>
+    <t>postTest/84_pitoka3.mp3</t>
+  </si>
+  <si>
+    <t>postTest/86_totipa2.mp3</t>
+  </si>
+  <si>
+    <t>postTest/87_kopoko1.mp3</t>
+  </si>
+  <si>
+    <t>postTest/89_totako3.mp3</t>
+  </si>
+  <si>
+    <t>postTest/90_papiki2.mp3</t>
+  </si>
+  <si>
+    <t>postTest/92_katoki1.mp3</t>
   </si>
 </sst>
 </file>
@@ -477,231 +477,232 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>

--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3CA5D9-1501-42DD-B04F-088CBF37C6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB6703-1147-4CD2-9E33-0D629FAFA377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
@@ -53,76 +53,76 @@
     <t>postTest</t>
   </si>
   <si>
-    <t>postTest/82_tipiko3.mp3</t>
-  </si>
-  <si>
-    <t>postTest/83_pitita2.mp3</t>
-  </si>
-  <si>
-    <t>postTest/84_pitoka1.mp3</t>
-  </si>
-  <si>
-    <t>postTest/85_kipata3.mp3</t>
-  </si>
-  <si>
-    <t>postTest/86_totipa1.mp3</t>
-  </si>
-  <si>
-    <t>postTest/87_kopoko3.mp3</t>
-  </si>
-  <si>
-    <t>postTest/88_pokota1.mp3</t>
-  </si>
-  <si>
-    <t>postTest/89_totako2.mp3</t>
-  </si>
-  <si>
-    <t>postTest/90_papiki3.mp3</t>
-  </si>
-  <si>
-    <t>postTest/91_papipo2.mp3</t>
-  </si>
-  <si>
-    <t>postTest/92_katoki2.mp3</t>
-  </si>
-  <si>
-    <t>postTest/93_pakopa1.mp3</t>
-  </si>
-  <si>
-    <t>postTest/82_tipiko1.mp3</t>
-  </si>
-  <si>
-    <t>postTest/83_pitita3.mp3</t>
-  </si>
-  <si>
-    <t>postTest/85_kipata2.mp3</t>
-  </si>
-  <si>
-    <t>postTest/88_pokota2.mp3</t>
-  </si>
-  <si>
-    <t>postTest/91_papipo1.mp3</t>
-  </si>
-  <si>
-    <t>postTest/93_pakopa3.mp3</t>
-  </si>
-  <si>
-    <t>postTest/84_pitoka3.mp3</t>
-  </si>
-  <si>
-    <t>postTest/86_totipa2.mp3</t>
-  </si>
-  <si>
-    <t>postTest/87_kopoko1.mp3</t>
-  </si>
-  <si>
-    <t>postTest/89_totako3.mp3</t>
-  </si>
-  <si>
-    <t>postTest/90_papiki2.mp3</t>
-  </si>
-  <si>
-    <t>postTest/92_katoki1.mp3</t>
+    <t>postTest/82_tipiko3.ogg</t>
+  </si>
+  <si>
+    <t>postTest/83_pitita2.ogg</t>
+  </si>
+  <si>
+    <t>postTest/84_pitoka1.ogg</t>
+  </si>
+  <si>
+    <t>postTest/85_kipata3.ogg</t>
+  </si>
+  <si>
+    <t>postTest/86_totipa1.ogg</t>
+  </si>
+  <si>
+    <t>postTest/87_kopoko3.ogg</t>
+  </si>
+  <si>
+    <t>postTest/88_pokota1.ogg</t>
+  </si>
+  <si>
+    <t>postTest/89_totako2.ogg</t>
+  </si>
+  <si>
+    <t>postTest/90_papiki3.ogg</t>
+  </si>
+  <si>
+    <t>postTest/91_papipo2.ogg</t>
+  </si>
+  <si>
+    <t>postTest/92_katoki2.ogg</t>
+  </si>
+  <si>
+    <t>postTest/93_pakopa1.ogg</t>
+  </si>
+  <si>
+    <t>postTest/82_tipiko1.ogg</t>
+  </si>
+  <si>
+    <t>postTest/83_pitita3.ogg</t>
+  </si>
+  <si>
+    <t>postTest/85_kipata2.ogg</t>
+  </si>
+  <si>
+    <t>postTest/88_pokota2.ogg</t>
+  </si>
+  <si>
+    <t>postTest/91_papipo1.ogg</t>
+  </si>
+  <si>
+    <t>postTest/93_pakopa3.ogg</t>
+  </si>
+  <si>
+    <t>postTest/84_pitoka3.ogg</t>
+  </si>
+  <si>
+    <t>postTest/86_totipa2.ogg</t>
+  </si>
+  <si>
+    <t>postTest/87_kopoko1.ogg</t>
+  </si>
+  <si>
+    <t>postTest/89_totako3.ogg</t>
+  </si>
+  <si>
+    <t>postTest/90_papiki2.ogg</t>
+  </si>
+  <si>
+    <t>postTest/92_katoki1.ogg</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/html/resources/postTestConditions.xlsx
+++ b/html/resources/postTestConditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB6703-1147-4CD2-9E33-0D629FAFA377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635D95E-7F45-4B87-87DB-2A46CB5F9EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
+    <workbookView xWindow="28680" yWindow="-2010" windowWidth="29040" windowHeight="17640" xr2:uid="{21124619-A3FC-413F-B9E6-3C5CB39C34F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,76 +53,76 @@
     <t>postTest</t>
   </si>
   <si>
-    <t>postTest/82_tipiko3.ogg</t>
-  </si>
-  <si>
-    <t>postTest/83_pitita2.ogg</t>
-  </si>
-  <si>
-    <t>postTest/84_pitoka1.ogg</t>
-  </si>
-  <si>
-    <t>postTest/85_kipata3.ogg</t>
-  </si>
-  <si>
-    <t>postTest/86_totipa1.ogg</t>
-  </si>
-  <si>
-    <t>postTest/87_kopoko3.ogg</t>
-  </si>
-  <si>
-    <t>postTest/88_pokota1.ogg</t>
-  </si>
-  <si>
-    <t>postTest/89_totako2.ogg</t>
-  </si>
-  <si>
-    <t>postTest/90_papiki3.ogg</t>
-  </si>
-  <si>
-    <t>postTest/91_papipo2.ogg</t>
-  </si>
-  <si>
-    <t>postTest/92_katoki2.ogg</t>
-  </si>
-  <si>
-    <t>postTest/93_pakopa1.ogg</t>
-  </si>
-  <si>
-    <t>postTest/82_tipiko1.ogg</t>
-  </si>
-  <si>
-    <t>postTest/83_pitita3.ogg</t>
-  </si>
-  <si>
-    <t>postTest/85_kipata2.ogg</t>
-  </si>
-  <si>
-    <t>postTest/88_pokota2.ogg</t>
-  </si>
-  <si>
-    <t>postTest/91_papipo1.ogg</t>
-  </si>
-  <si>
-    <t>postTest/93_pakopa3.ogg</t>
-  </si>
-  <si>
-    <t>postTest/84_pitoka3.ogg</t>
-  </si>
-  <si>
-    <t>postTest/86_totipa2.ogg</t>
-  </si>
-  <si>
-    <t>postTest/87_kopoko1.ogg</t>
-  </si>
-  <si>
-    <t>postTest/89_totako3.ogg</t>
-  </si>
-  <si>
-    <t>postTest/90_papiki2.ogg</t>
-  </si>
-  <si>
-    <t>postTest/92_katoki1.ogg</t>
+    <t>postTest/82_tipiko1.wav</t>
+  </si>
+  <si>
+    <t>postTest/83_pitita3.wav</t>
+  </si>
+  <si>
+    <t>postTest/84_pitoka3.wav</t>
+  </si>
+  <si>
+    <t>postTest/85_kipata2.wav</t>
+  </si>
+  <si>
+    <t>postTest/86_totipa2.wav</t>
+  </si>
+  <si>
+    <t>postTest/87_kopoko1.wav</t>
+  </si>
+  <si>
+    <t>postTest/88_pokota2.wav</t>
+  </si>
+  <si>
+    <t>postTest/89_totako3.wav</t>
+  </si>
+  <si>
+    <t>postTest/90_papiki2.wav</t>
+  </si>
+  <si>
+    <t>postTest/91_papipo1.wav</t>
+  </si>
+  <si>
+    <t>postTest/92_katoki1.wav</t>
+  </si>
+  <si>
+    <t>postTest/93_pakopa3.wav</t>
+  </si>
+  <si>
+    <t>postTest/84_pitoka1.wav</t>
+  </si>
+  <si>
+    <t>postTest/86_totipa1.wav</t>
+  </si>
+  <si>
+    <t>postTest/87_kopoko3.wav</t>
+  </si>
+  <si>
+    <t>postTest/89_totako2.wav</t>
+  </si>
+  <si>
+    <t>postTest/90_papiki3.wav</t>
+  </si>
+  <si>
+    <t>postTest/92_katoki2.wav</t>
+  </si>
+  <si>
+    <t>postTest/82_tipiko3.wav</t>
+  </si>
+  <si>
+    <t>postTest/83_pitita2.wav</t>
+  </si>
+  <si>
+    <t>postTest/85_kipata3.wav</t>
+  </si>
+  <si>
+    <t>postTest/88_pokota1.wav</t>
+  </si>
+  <si>
+    <t>postTest/91_papipo2.wav</t>
+  </si>
+  <si>
+    <t>postTest/93_pakopa1.wav</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +506,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -523,13 +523,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -540,13 +540,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -557,13 +557,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -574,13 +574,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -608,13 +608,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -642,13 +642,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -676,13 +676,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -693,13 +693,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
